--- a/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
+++ b/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="18840" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="19770" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>source</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>vegetarian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -462,16 +466,16 @@
     <col min="2" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="10.125" customWidth="1"/>
-    <col min="8" max="8" width="17.75" customWidth="1"/>
-    <col min="9" max="9" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.875" customWidth="1"/>
-    <col min="11" max="11" width="19.875" customWidth="1"/>
-    <col min="12" max="12" width="10.875" customWidth="1"/>
-    <col min="13" max="13" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="17.75" customWidth="1"/>
+    <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" customWidth="1"/>
+    <col min="12" max="12" width="19.875" customWidth="1"/>
+    <col min="13" max="13" width="10.875" customWidth="1"/>
+    <col min="14" max="14" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,28 +495,31 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -529,14 +536,14 @@
         <v>10</v>
       </c>
       <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>4400</v>
+      </c>
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
@@ -552,14 +559,17 @@
       <c r="M2">
         <v>0</v>
       </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="4"/>
-      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
+++ b/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="19770" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView activeTab="0" windowHeight="8010" windowWidth="14805" xWindow="19770" yWindow="105"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -16,109 +16,160 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
-    <t>source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ticket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>people</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0911111111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test@test.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_beef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_nut_v</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_pork</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_nut_m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no_shell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>meat_eat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vegetarian</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>money</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <r>
+      <t>source</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>name</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>phone</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>email</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ticket</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>people</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>測試的</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0911111111</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>test@test.com</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>測試5</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no_beef</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no_nut_v</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no_pork</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no_nut_m</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>no_shell</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>meat_eat</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>vegetarian</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>money</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no_fish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+  <numFmts count="8">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="新細明體"/>
+      <charset val="136"/>
+      <family val="3"/>
+      <color rgb="FF000000"/>
       <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -132,23 +183,33 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -453,14 +514,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection pane="topLeft" activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
@@ -470,9 +530,9 @@
     <col min="9" max="9" width="17.75" customWidth="1"/>
     <col min="10" max="10" width="16.125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18.875" customWidth="1"/>
-    <col min="12" max="12" width="19.875" customWidth="1"/>
-    <col min="13" max="13" width="10.875" customWidth="1"/>
-    <col min="14" max="14" width="22.625" customWidth="1"/>
+    <col min="13" max="13" width="19.875" customWidth="1"/>
+    <col min="14" max="14" width="10.875" customWidth="1"/>
+    <col min="15" max="15" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -512,10 +572,13 @@
       <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -556,10 +619,13 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0">
         <v>0</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0</v>
       </c>
     </row>

--- a/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
+++ b/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
@@ -126,11 +126,17 @@
   <si>
     <t>no_fish</t>
   </si>
+  <si>
+    <t>no_alcohol</t>
+  </si>
+  <si>
+    <t>no_alcohol_v</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="8" mc:Ignorable="x14ac">
   <numFmts count="8">
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
@@ -517,7 +523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="M3" sqref="M3"/>
+      <selection pane="topLeft" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
@@ -533,6 +539,8 @@
     <col min="13" max="13" width="19.875" customWidth="1"/>
     <col min="14" max="14" width="10.875" customWidth="1"/>
     <col min="15" max="15" width="22.625" customWidth="1"/>
+    <col min="16" max="16" width="17.26" customWidth="1"/>
+    <col min="17" max="17" width="13.68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -581,6 +589,12 @@
       <c r="O1" t="s">
         <v>11</v>
       </c>
+      <c r="P1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -626,6 +640,12 @@
         <v>0</v>
       </c>
       <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0</v>
       </c>
     </row>

--- a/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
+++ b/public/example/無光晚餐S3訂單資料匯入範例檔案.xlsx
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>no_alcohol_v</t>
+  </si>
+  <si>
+    <t>no_lamb</t>
   </si>
 </sst>
 </file>
@@ -523,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection pane="topLeft" activeCell="Q8" sqref="Q8"/>
+      <selection pane="topLeft" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16"/>
@@ -595,6 +598,9 @@
       <c r="Q1" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="R1" s="0" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -646,6 +652,9 @@
         <v>0</v>
       </c>
       <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0">
         <v>0</v>
       </c>
     </row>
